--- a/Instances/G0044432_NonStationary_b2_fe25_en_rk50_ll2_l20_HTrue_c10.xlsx
+++ b/Instances/G0044432_NonStationary_b2_fe25_en_rk50_ll2_l20_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>6.477634006076389</v>
+        <v>9.009619140625</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.492336697048611</v>
+        <v>5.033414713541666</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>5.436686197916667</v>
+        <v>7.098502604166667</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>12.98955620659722</v>
+        <v>13.86271158854167</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1874,111 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>72</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>23</v>
-      </c>
-      <c r="E17" t="n">
-        <v>75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>39</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" t="n">
-        <v>56</v>
-      </c>
-      <c r="E18" t="n">
-        <v>91</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>59</v>
-      </c>
-      <c r="C19" t="n">
-        <v>29</v>
-      </c>
-      <c r="D19" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" t="n">
-        <v>152</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1993,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,34 +2073,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2213,34 +2108,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>4.625</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>2.625</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>15.375</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2248,34 +2143,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>9.375</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>4.3125</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>7.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>17.4375</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2283,16 +2178,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.53125</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.28125</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16.625</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>24.0625</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2318,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.125</v>
+        <v>10.3125</v>
       </c>
       <c r="C10" t="n">
-        <v>3.75</v>
+        <v>8.203125</v>
       </c>
       <c r="D10" t="n">
-        <v>6.5</v>
+        <v>8.90625</v>
       </c>
       <c r="E10" t="n">
-        <v>13.875</v>
+        <v>15.46875</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2353,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.375</v>
+        <v>12.59375</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0625</v>
+        <v>11.625</v>
       </c>
       <c r="D11" t="n">
-        <v>7.875</v>
+        <v>16.46875</v>
       </c>
       <c r="E11" t="n">
-        <v>23.625</v>
+        <v>27.125</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2388,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.34375</v>
+        <v>18.45703125</v>
       </c>
       <c r="C12" t="n">
-        <v>2.625</v>
+        <v>9.84375</v>
       </c>
       <c r="D12" t="n">
-        <v>4.8125</v>
+        <v>9.84375</v>
       </c>
       <c r="E12" t="n">
-        <v>9.1875</v>
+        <v>14.51953125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2423,16 +2318,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.5</v>
+        <v>15.37890625</v>
       </c>
       <c r="C13" t="n">
-        <v>7.96875</v>
+        <v>10.41796875</v>
       </c>
       <c r="D13" t="n">
-        <v>11.953125</v>
+        <v>3.720703125</v>
       </c>
       <c r="E13" t="n">
-        <v>11.484375</v>
+        <v>16.8671875</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2458,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.9296875</v>
+        <v>22.6611328125</v>
       </c>
       <c r="C14" t="n">
-        <v>9.4453125</v>
+        <v>9.462890625</v>
       </c>
       <c r="D14" t="n">
-        <v>13.5625</v>
+        <v>11.455078125</v>
       </c>
       <c r="E14" t="n">
-        <v>45.046875</v>
+        <v>24.1552734375</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2493,16 +2388,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.796875</v>
+        <v>14.970703125</v>
       </c>
       <c r="C15" t="n">
-        <v>9.10546875</v>
+        <v>4.990234375</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3046875</v>
+        <v>15.4697265625</v>
       </c>
       <c r="E15" t="n">
-        <v>12.3046875</v>
+        <v>18.71337890625</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2528,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.130859375</v>
+        <v>11.239013671875</v>
       </c>
       <c r="C16" t="n">
-        <v>6.9453125</v>
+        <v>10.739501953125</v>
       </c>
       <c r="D16" t="n">
-        <v>11.162109375</v>
+        <v>11.98828125</v>
       </c>
       <c r="E16" t="n">
-        <v>38.943359375</v>
+        <v>34.216552734375</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2555,111 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.9296875</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.2255859375</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.7275390625</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18.6767578125</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9.73095703125</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.4912109375</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13.97265625</v>
-      </c>
-      <c r="E18" t="n">
-        <v>22.70556640625</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>14.735595703125</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.242919921875</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.990234375</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37.962890625</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2300</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2700,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3020</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2708,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4560</v>
+        <v>4850</v>
       </c>
     </row>
   </sheetData>
